--- a/src/main/java/com/flipkart/testdata/TestData.xlsx
+++ b/src/main/java/com/flipkart/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D21F898C-1586-49D0-9C7C-1201500A53A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70B9EA3D-4F6D-4CFE-8049-D41CF67599E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
